--- a/issue.xlsx
+++ b/issue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hel</t>
   </si>
 </sst>
 </file>
@@ -397,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,58 +448,6 @@
         <v>36532</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>43410</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>43423</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>43410</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43423</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>43423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/issue.xlsx
+++ b/issue.xlsx
@@ -12,35 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Book Code</t>
-  </si>
-  <si>
-    <t>Date Taken</t>
-  </si>
-  <si>
-    <t>Return Date</t>
-  </si>
-  <si>
-    <t>Date Returned</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,44 +370,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Book Code</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date Taken</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Return Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date Returned</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="F2" s="2" t="n">
         <v>36526</v>
@@ -446,6 +439,40 @@
       </c>
       <c r="H2" s="2" t="n">
         <v>36532</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cs2b</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>43581</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43594</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>43594</v>
       </c>
     </row>
   </sheetData>

--- a/issue.xlsx
+++ b/issue.xlsx
@@ -447,32 +447,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cs2b</t>
+          <t>cs22B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>86h</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43581</v>
+        <v>43594</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>43594</v>
+        <v>43607</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>43594</v>
+        <v>43607</v>
       </c>
     </row>
   </sheetData>
